--- a/src/bin/SSS_Sofia_test5.xlsx
+++ b/src/bin/SSS_Sofia_test5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1470EAC-CB8D-4BB4-9CE0-65B962D94D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949BF174-9CA2-4074-8641-AF5417AB92E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="215">
   <si>
     <t>Форпик</t>
   </si>
@@ -1265,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
@@ -2631,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G50" sqref="G49:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3053,7 @@
         <v>6.6</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3070,7 +3070,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3087,7 +3087,7 @@
         <v>7.8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3104,7 +3104,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3189,7 +3189,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3206,7 +3206,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3240,7 +3240,7 @@
         <v>0.5</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3257,7 +3257,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3274,7 +3274,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3308,7 +3308,7 @@
         <v>1.8</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
         <v>0.4</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3376,7 +3376,7 @@
         <v>6.7</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3393,7 +3393,7 @@
         <v>0.3</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3461,7 +3461,7 @@
         <v>8.4</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3478,7 +3478,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3512,7 +3512,7 @@
         <v>3.6</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3529,7 +3529,7 @@
         <v>3.6</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3647,7 +3647,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3688,39 +3688,17 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>

--- a/src/bin/SSS_Sofia_test5.xlsx
+++ b/src/bin/SSS_Sofia_test5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949BF174-9CA2-4074-8641-AF5417AB92E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CB0960-5FF6-4AD5-ADE4-61A8536C0F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="215">
   <si>
     <t>Форпик</t>
   </si>
@@ -781,7 +781,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -864,6 +864,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1265,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2631,8 +2637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G50" sqref="G49:G50"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3040,70 +3046,70 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="3">
         <v>303</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="30">
         <v>0.97</v>
       </c>
-      <c r="D24" s="13">
-        <v>6.6</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="31">
+        <v>6.56</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="3">
         <v>304</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="30">
         <v>0.97</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="31">
         <v>15</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="3">
         <v>305</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="30">
         <v>0.97</v>
       </c>
-      <c r="D26" s="13">
-        <v>7.8</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="D26" s="31">
+        <v>7.7729999999999997</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="3">
         <v>306</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="30">
         <v>0.97</v>
       </c>
-      <c r="D27" s="13">
-        <v>10</v>
-      </c>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="31">
+        <v>9.952</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3142,70 +3148,70 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="3">
         <v>231</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="30">
         <v>1.0249999999999999</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="31">
         <v>0</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="A31" s="3">
         <v>232</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="30">
         <v>1.0249999999999999</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="31">
         <v>0</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="3">
         <v>301</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="30">
         <v>0.97</v>
       </c>
-      <c r="D32" s="13">
-        <v>2</v>
-      </c>
-      <c r="E32" s="11" t="s">
+      <c r="D32" s="31">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+      <c r="A33" s="3">
         <v>302</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="30">
         <v>0.97</v>
       </c>
-      <c r="D33" s="13">
-        <v>17</v>
-      </c>
-      <c r="E33" s="11" t="s">
+      <c r="D33" s="31">
+        <v>17.032</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3216,13 +3222,13 @@
       <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="30">
         <v>0.97</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="31">
         <v>0</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3233,13 +3239,13 @@
       <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="30">
         <v>0.85</v>
       </c>
-      <c r="D35" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E35" s="11" t="s">
+      <c r="D35" s="31">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3250,13 +3256,13 @@
       <c r="B36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="30">
         <v>0.85</v>
       </c>
-      <c r="D36" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E36" s="11" t="s">
+      <c r="D36" s="31">
+        <v>4.4109999999999996</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3267,13 +3273,13 @@
       <c r="B37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="30">
         <v>0.85</v>
       </c>
-      <c r="D37" s="13">
-        <v>3</v>
-      </c>
-      <c r="E37" s="11" t="s">
+      <c r="D37" s="31">
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3284,13 +3290,13 @@
       <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="30">
         <v>0.85</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="31">
         <v>0</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3301,13 +3307,13 @@
       <c r="B39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="30">
         <v>0.9</v>
       </c>
-      <c r="D39" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="E39" s="11" t="s">
+      <c r="D39" s="31">
+        <v>1.752</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3318,13 +3324,13 @@
       <c r="B40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="30">
         <v>0.9</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="31">
         <v>0</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3335,13 +3341,13 @@
       <c r="B41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="30">
         <v>0.9</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="31">
         <v>0</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3352,13 +3358,13 @@
       <c r="B42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="30">
         <v>0.9</v>
       </c>
-      <c r="D42" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E42" s="11" t="s">
+      <c r="D42" s="31">
+        <v>0.376</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3369,13 +3375,13 @@
       <c r="B43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="30">
         <v>0.97</v>
       </c>
-      <c r="D43" s="13">
-        <v>6.7</v>
-      </c>
-      <c r="E43" s="11" t="s">
+      <c r="D43" s="31">
+        <v>6.6680000000000001</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3386,13 +3392,13 @@
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="30">
         <v>1</v>
       </c>
-      <c r="D44" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="E44" s="11" t="s">
+      <c r="D44" s="31">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3403,13 +3409,13 @@
       <c r="B45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="30">
         <v>1</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="31">
         <v>0</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3420,13 +3426,13 @@
       <c r="B46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="30">
         <v>1</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="31">
         <v>0</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3437,13 +3443,13 @@
       <c r="B47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="30">
         <v>1</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="31">
         <v>0</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3454,13 +3460,13 @@
       <c r="B48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="30">
         <v>1</v>
       </c>
-      <c r="D48" s="13">
-        <v>8.4</v>
-      </c>
-      <c r="E48" s="11" t="s">
+      <c r="D48" s="31">
+        <v>8.3740000000000006</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3471,13 +3477,13 @@
       <c r="B49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="30">
         <v>1</v>
       </c>
-      <c r="D49" s="13">
-        <v>6</v>
-      </c>
-      <c r="E49" s="11" t="s">
+      <c r="D49" s="31">
+        <v>5.9939999999999998</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3488,13 +3494,13 @@
       <c r="B50" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="30">
         <v>1</v>
       </c>
-      <c r="D50" s="13">
-        <v>6</v>
-      </c>
-      <c r="E50" s="11" t="s">
+      <c r="D50" s="31">
+        <v>5.9939999999999998</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3505,13 +3511,13 @@
       <c r="B51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="30">
         <v>1</v>
       </c>
-      <c r="D51" s="13">
-        <v>3.6</v>
-      </c>
-      <c r="E51" s="11" t="s">
+      <c r="D51" s="31">
+        <v>3.6339999999999999</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3522,13 +3528,13 @@
       <c r="B52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="30">
         <v>1</v>
       </c>
-      <c r="D52" s="13">
-        <v>3.6</v>
-      </c>
-      <c r="E52" s="11" t="s">
+      <c r="D52" s="31">
+        <v>3.6339999999999999</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3539,13 +3545,13 @@
       <c r="B53" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="30">
         <v>0</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="31">
         <v>0</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4836,7 +4842,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5248,8 +5254,8 @@
       <c r="C18" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>54</v>
+      <c r="D18" s="19">
+        <v>0.187</v>
       </c>
       <c r="E18" s="10">
         <v>1</v>
